--- a/teamstats.xlsx
+++ b/teamstats.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24321"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C07B38A-8CBB-4456-9181-2649189DCF4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1CBF66A-B0AF-42B2-9D37-CB466940FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team per game" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="134">
   <si>
     <t>Rk</t>
   </si>
@@ -200,12 +200,6 @@
     <t>League Average</t>
   </si>
   <si>
-    <t>Offense Four Factors</t>
-  </si>
-  <si>
-    <t>Defense Four Factors</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -251,19 +245,28 @@
     <t>TS%</t>
   </si>
   <si>
-    <t>eFG%</t>
+    <t>O eFG%</t>
   </si>
   <si>
-    <t>TOV%</t>
+    <t>O TOV%</t>
   </si>
   <si>
-    <t>ORB%</t>
+    <t>O ORB%</t>
   </si>
   <si>
-    <t>FT/FGA</t>
+    <t>O FT/FGA</t>
   </si>
   <si>
-    <t>DRB%</t>
+    <t>D eFG%</t>
+  </si>
+  <si>
+    <t>D TOV%</t>
+  </si>
+  <si>
+    <t>D DRB%</t>
+  </si>
+  <si>
+    <t>D FT/FGA</t>
   </si>
   <si>
     <t>Arena</t>
@@ -362,46 +365,73 @@
     <t>Chesapeake Energy Arena</t>
   </si>
   <si>
-    <t>% of FGA by Distance</t>
-  </si>
-  <si>
-    <t>FG% by Distance</t>
-  </si>
-  <si>
-    <t>% of FG Ast'd</t>
-  </si>
-  <si>
-    <t>Dunks</t>
-  </si>
-  <si>
-    <t>Layups</t>
-  </si>
-  <si>
-    <t>Corner</t>
-  </si>
-  <si>
-    <t>Heaves</t>
-  </si>
-  <si>
     <t>Dist.</t>
   </si>
   <si>
-    <t>0-3</t>
+    <t>2P % of FGA by Distance</t>
   </si>
   <si>
-    <t>16-3pt</t>
+    <t>0 to 3 % of FGA by Distance</t>
   </si>
   <si>
-    <t>%FGA</t>
+    <t>3 to 10 % of FGA by Distance</t>
   </si>
   <si>
-    <t>Md.</t>
+    <t>10 to 16 % of FGA by Distance</t>
   </si>
   <si>
-    <t>%3PA</t>
+    <t>16-3pt % of FGA by Distance</t>
   </si>
   <si>
-    <t>Att.</t>
+    <t>3P % of FGA by Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2P FG% by Distance</t>
+  </si>
+  <si>
+    <t>0 to 3 FG% by Distance</t>
+  </si>
+  <si>
+    <t>3 to 10 FG% by Distance</t>
+  </si>
+  <si>
+    <t>10 to 16 FG% by Distance</t>
+  </si>
+  <si>
+    <t>16-3pt FG% by Distance</t>
+  </si>
+  <si>
+    <t>3P FG% by Distance</t>
+  </si>
+  <si>
+    <t>2P % of FG Ast'd</t>
+  </si>
+  <si>
+    <t>3P % of FG Ast'd</t>
+  </si>
+  <si>
+    <t>%FGA Dunks</t>
+  </si>
+  <si>
+    <t>Md. Dunks</t>
+  </si>
+  <si>
+    <t>%FGA Layups</t>
+  </si>
+  <si>
+    <t>Md. Layups</t>
+  </si>
+  <si>
+    <t>%3PA Corner</t>
+  </si>
+  <si>
+    <t>3P% Corner</t>
+  </si>
+  <si>
+    <t>Att. Heaves</t>
+  </si>
+  <si>
+    <t>Md. Heaves</t>
   </si>
 </sst>
 </file>
@@ -3256,9 +3286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319B8135-6053-4553-927A-4AC54C29E911}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Y31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -5656,10 +5684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5B04E8-AF0E-4EE3-964A-D12479D3E50C}">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5668,219 +5696,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
       <c r="S1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="T1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="V1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="Z1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AA1" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>76</v>
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>28.5</v>
+      </c>
+      <c r="D2">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>9.25</v>
+      </c>
+      <c r="I2">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J2">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="K2">
+        <v>117.6</v>
+      </c>
+      <c r="L2">
+        <v>108.3</v>
+      </c>
+      <c r="M2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N2">
+        <v>98.5</v>
+      </c>
+      <c r="O2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="P2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="S2">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="T2">
+        <v>12.7</v>
+      </c>
+      <c r="U2">
+        <v>24.5</v>
+      </c>
+      <c r="V2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="X2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>10.3</v>
+      </c>
+      <c r="Z2">
+        <v>79.3</v>
+      </c>
+      <c r="AA2">
+        <v>0.159</v>
       </c>
       <c r="AC2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="AD2">
+        <v>151300</v>
+      </c>
+      <c r="AE2">
+        <v>4203</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>9.25</v>
+        <v>6.18</v>
       </c>
       <c r="I3">
-        <v>-0.28999999999999998</v>
+        <v>-0.16</v>
       </c>
       <c r="J3">
-        <v>8.9700000000000006</v>
+        <v>6.02</v>
       </c>
       <c r="K3">
         <v>117.6</v>
       </c>
       <c r="L3">
-        <v>108.3</v>
+        <v>111.2</v>
       </c>
       <c r="M3">
-        <v>9.3000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="N3">
-        <v>98.5</v>
+        <v>96.9</v>
       </c>
       <c r="O3">
-        <v>0.24399999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="P3">
-        <v>0.48799999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="Q3">
-        <v>0.59699999999999998</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="S3">
-        <v>0.56299999999999994</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="T3">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="U3">
-        <v>24.5</v>
+        <v>22.7</v>
       </c>
       <c r="V3">
-        <v>0.19500000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="X3">
-        <v>0.50700000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="Y3">
-        <v>10.3</v>
+        <v>11.9</v>
       </c>
       <c r="Z3">
-        <v>79.3</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="AA3">
-        <v>0.159</v>
+        <v>0.186</v>
       </c>
       <c r="AC3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD3">
-        <v>151300</v>
+        <v>13901</v>
       </c>
       <c r="AE3">
-        <v>4203</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>28.8</v>
+        <v>26.6</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>49</v>
@@ -5889,170 +5976,170 @@
         <v>23</v>
       </c>
       <c r="H4">
-        <v>6.18</v>
+        <v>5.82</v>
       </c>
       <c r="I4">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="J4">
-        <v>6.02</v>
+        <v>5.67</v>
       </c>
       <c r="K4">
-        <v>117.6</v>
+        <v>117.2</v>
       </c>
       <c r="L4">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="M4">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="N4">
-        <v>96.9</v>
+        <v>97.2</v>
       </c>
       <c r="O4">
-        <v>0.222</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="P4">
-        <v>0.4</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="Q4">
-        <v>0.59899999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="S4">
         <v>0.56399999999999995</v>
       </c>
       <c r="T4">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="U4">
-        <v>22.7</v>
+        <v>20.8</v>
       </c>
       <c r="V4">
-        <v>0.186</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="X4">
-        <v>0.53100000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="Y4">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="Z4">
-        <v>79.099999999999994</v>
+        <v>78.5</v>
       </c>
       <c r="AA4">
-        <v>0.186</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="AC4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD4">
-        <v>13901</v>
+        <v>104027</v>
       </c>
       <c r="AE4">
-        <v>386</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>26.6</v>
+        <v>28.1</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5">
-        <v>5.82</v>
+        <v>5.89</v>
       </c>
       <c r="I5">
         <v>-0.15</v>
       </c>
       <c r="J5">
-        <v>5.67</v>
+        <v>5.57</v>
       </c>
       <c r="K5">
         <v>117.2</v>
       </c>
       <c r="L5">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="M5">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="N5">
-        <v>97.2</v>
+        <v>102.2</v>
       </c>
       <c r="O5">
-        <v>0.21199999999999999</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="P5">
-        <v>0.39200000000000002</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="Q5">
-        <v>0.59699999999999998</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="S5">
-        <v>0.56399999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="T5">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="U5">
-        <v>20.8</v>
+        <v>23.3</v>
       </c>
       <c r="V5">
         <v>0.17699999999999999</v>
       </c>
       <c r="X5">
-        <v>0.53400000000000003</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="Y5">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="Z5">
-        <v>78.5</v>
+        <v>79.7</v>
       </c>
       <c r="AA5">
-        <v>0.19400000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="AC5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD5">
-        <v>104027</v>
+        <v>64780</v>
       </c>
       <c r="AE5">
-        <v>2890</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>28.1</v>
+        <v>27.1</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>48</v>
@@ -6061,336 +6148,336 @@
         <v>24</v>
       </c>
       <c r="H6">
-        <v>5.89</v>
+        <v>5.58</v>
       </c>
       <c r="I6">
-        <v>-0.15</v>
+        <v>-0.31</v>
       </c>
       <c r="J6">
-        <v>5.57</v>
+        <v>5.28</v>
       </c>
       <c r="K6">
-        <v>117.2</v>
+        <v>113.2</v>
       </c>
       <c r="L6">
-        <v>111.4</v>
+        <v>107.6</v>
       </c>
       <c r="M6">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="N6">
-        <v>102.2</v>
+        <v>99.5</v>
       </c>
       <c r="O6">
-        <v>0.23300000000000001</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="P6">
-        <v>0.40400000000000003</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="Q6">
-        <v>0.59299999999999997</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="S6">
-        <v>0.56599999999999995</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="T6">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="U6">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V6">
-        <v>0.17699999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="X6">
-        <v>0.53600000000000003</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="Y6">
-        <v>11.5</v>
+        <v>13.8</v>
       </c>
       <c r="Z6">
-        <v>79.7</v>
+        <v>78.2</v>
       </c>
       <c r="AA6">
-        <v>0.157</v>
+        <v>0.2</v>
       </c>
       <c r="AC6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AD6">
-        <v>64780</v>
+        <v>68583</v>
       </c>
       <c r="AE6">
-        <v>1799</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>26.1</v>
+      </c>
+      <c r="D7">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>4.93</v>
+      </c>
+      <c r="I7">
+        <v>-0.11</v>
+      </c>
+      <c r="J7">
+        <v>4.82</v>
+      </c>
+      <c r="K7">
+        <v>117.1</v>
+      </c>
+      <c r="L7">
+        <v>112.1</v>
+      </c>
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7">
-        <v>27.1</v>
-      </c>
-      <c r="D7">
-        <v>49</v>
-      </c>
-      <c r="E7">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <v>24</v>
-      </c>
-      <c r="H7">
-        <v>5.58</v>
-      </c>
-      <c r="I7">
-        <v>-0.31</v>
-      </c>
-      <c r="J7">
-        <v>5.28</v>
-      </c>
-      <c r="K7">
-        <v>113.2</v>
-      </c>
-      <c r="L7">
-        <v>107.6</v>
-      </c>
-      <c r="M7">
-        <v>5.6</v>
-      </c>
       <c r="N7">
-        <v>99.5</v>
+        <v>97.1</v>
       </c>
       <c r="O7">
-        <v>0.29299999999999998</v>
+        <v>0.219</v>
       </c>
       <c r="P7">
-        <v>0.34699999999999998</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.57899999999999996</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="S7">
-        <v>0.54100000000000004</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="T7">
-        <v>12.8</v>
+        <v>12.1</v>
       </c>
       <c r="U7">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="V7">
-        <v>0.22500000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="X7">
-        <v>0.52100000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="Y7">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="Z7">
-        <v>78.2</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="AA7">
         <v>0.2</v>
       </c>
       <c r="AC7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD7">
-        <v>68583</v>
+        <v>54563</v>
       </c>
       <c r="AE7">
-        <v>1905</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>26.1</v>
+        <v>28.2</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8">
-        <v>4.93</v>
+        <v>4.5</v>
       </c>
       <c r="I8">
-        <v>-0.11</v>
+        <v>-0.27</v>
       </c>
       <c r="J8">
-        <v>4.82</v>
+        <v>4.24</v>
       </c>
       <c r="K8">
-        <v>117.1</v>
+        <v>118.3</v>
       </c>
       <c r="L8">
-        <v>112.1</v>
+        <v>113.8</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N8">
-        <v>97.1</v>
+        <v>99.5</v>
       </c>
       <c r="O8">
-        <v>0.219</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="P8">
-        <v>0.38300000000000001</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="Q8">
-        <v>0.58799999999999997</v>
+        <v>0.61</v>
       </c>
       <c r="S8">
-        <v>0.55700000000000005</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="T8">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="U8">
-        <v>24.7</v>
+        <v>21.4</v>
       </c>
       <c r="V8">
-        <v>0.17599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="X8">
-        <v>0.54500000000000004</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="Y8">
-        <v>12.9</v>
+        <v>11.1</v>
       </c>
       <c r="Z8">
-        <v>78.900000000000006</v>
+        <v>77.3</v>
       </c>
       <c r="AA8">
-        <v>0.2</v>
+        <v>0.187</v>
       </c>
       <c r="AC8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD8">
-        <v>54563</v>
+        <v>30491</v>
       </c>
       <c r="AE8">
-        <v>1516</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>28.2</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4.5</v>
+        <v>2.79</v>
       </c>
       <c r="I9">
-        <v>-0.27</v>
+        <v>-0.03</v>
       </c>
       <c r="J9">
-        <v>4.24</v>
+        <v>2.77</v>
       </c>
       <c r="K9">
-        <v>118.3</v>
+        <v>109.9</v>
       </c>
       <c r="L9">
-        <v>113.8</v>
+        <v>107.1</v>
       </c>
       <c r="M9">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
-        <v>99.5</v>
+        <v>98.7</v>
       </c>
       <c r="O9">
-        <v>0.25800000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="P9">
-        <v>0.41299999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.61</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="S9">
-        <v>0.57499999999999996</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="T9">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="U9">
-        <v>21.4</v>
+        <v>22.5</v>
       </c>
       <c r="V9">
-        <v>0.20799999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
-        <v>0.53100000000000003</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="Y9">
-        <v>11.1</v>
+        <v>13.7</v>
       </c>
       <c r="Z9">
-        <v>77.3</v>
+        <v>79.7</v>
       </c>
       <c r="AA9">
-        <v>0.187</v>
+        <v>0.184</v>
       </c>
       <c r="AC9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AD9">
-        <v>30491</v>
+        <v>23313</v>
       </c>
       <c r="AE9">
-        <v>847</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>28.2</v>
+        <v>26.3</v>
       </c>
       <c r="D10">
         <v>42</v>
@@ -6399,90 +6486,90 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>2.79</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="I10">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="J10">
-        <v>2.77</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="K10">
-        <v>109.9</v>
+        <v>115.4</v>
       </c>
       <c r="L10">
-        <v>107.1</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>98.7</v>
+        <v>97.3</v>
       </c>
       <c r="O10">
-        <v>0.27100000000000002</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="P10">
-        <v>0.36299999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="Q10">
-        <v>0.56899999999999995</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="S10">
-        <v>0.53600000000000003</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T10">
-        <v>13.6</v>
+        <v>11.1</v>
       </c>
       <c r="U10">
-        <v>22.5</v>
+        <v>21.1</v>
       </c>
       <c r="V10">
-        <v>0.2</v>
+        <v>0.189</v>
       </c>
       <c r="X10">
-        <v>0.52600000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="Y10">
-        <v>13.7</v>
+        <v>11.5</v>
       </c>
       <c r="Z10">
-        <v>79.7</v>
+        <v>77.8</v>
       </c>
       <c r="AA10">
-        <v>0.184</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="AC10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AD10">
-        <v>23313</v>
+        <v>94849</v>
       </c>
       <c r="AE10">
-        <v>648</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>25.6</v>
+      </c>
+      <c r="D11">
         <v>41</v>
       </c>
-      <c r="C11">
-        <v>26.3</v>
-      </c>
-      <c r="D11">
-        <v>42</v>
-      </c>
       <c r="E11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>41</v>
@@ -6491,78 +6578,78 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>2.2599999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="I11">
-        <v>-0.01</v>
+        <v>-0.18</v>
       </c>
       <c r="J11">
-        <v>2.2599999999999998</v>
+        <v>2.13</v>
       </c>
       <c r="K11">
-        <v>115.4</v>
+        <v>110.6</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>108.2</v>
       </c>
       <c r="M11">
         <v>2.4</v>
       </c>
       <c r="N11">
-        <v>97.3</v>
+        <v>95.9</v>
       </c>
       <c r="O11">
         <v>0.24199999999999999</v>
       </c>
       <c r="P11">
-        <v>0.436</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="Q11">
-        <v>0.58199999999999996</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="S11">
-        <v>0.55000000000000004</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="T11">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="U11">
-        <v>21.1</v>
+        <v>21.9</v>
       </c>
       <c r="V11">
-        <v>0.189</v>
+        <v>0.19</v>
       </c>
       <c r="X11">
-        <v>0.53400000000000003</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="Y11">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="Z11">
-        <v>77.8</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="AA11">
-        <v>0.19700000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="AC11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AD11">
-        <v>94849</v>
+        <v>42131</v>
       </c>
       <c r="AE11">
-        <v>2635</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="D12">
         <v>41</v>
@@ -6577,342 +6664,342 @@
         <v>31</v>
       </c>
       <c r="H12">
-        <v>2.31</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="I12">
         <v>-0.18</v>
       </c>
       <c r="J12">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="K12">
-        <v>110.6</v>
+        <v>115.7</v>
       </c>
       <c r="L12">
-        <v>108.2</v>
+        <v>113.3</v>
       </c>
       <c r="M12">
         <v>2.4</v>
       </c>
       <c r="N12">
-        <v>95.9</v>
+        <v>97.6</v>
       </c>
       <c r="O12">
-        <v>0.24199999999999999</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="P12">
-        <v>0.34699999999999998</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="Q12">
-        <v>0.55900000000000005</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="S12">
-        <v>0.52400000000000002</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="T12">
         <v>11.9</v>
       </c>
       <c r="U12">
-        <v>21.9</v>
+        <v>24.4</v>
       </c>
       <c r="V12">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="X12">
+        <v>0.53</v>
+      </c>
+      <c r="Y12">
+        <v>11.1</v>
+      </c>
+      <c r="Z12">
+        <v>77.8</v>
+      </c>
+      <c r="AA12">
         <v>0.19</v>
       </c>
-      <c r="X12">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="Y12">
-        <v>11.7</v>
-      </c>
-      <c r="Z12">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="AA12">
-        <v>0.19600000000000001</v>
-      </c>
       <c r="AC12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AD12">
-        <v>42131</v>
+        <v>59288</v>
       </c>
       <c r="AE12">
-        <v>1170</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>25.4</v>
+        <v>27.4</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2.3199999999999998</v>
+        <v>1.79</v>
       </c>
       <c r="I13">
-        <v>-0.18</v>
+        <v>0.01</v>
       </c>
       <c r="J13">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="K13">
-        <v>115.7</v>
+        <v>117.8</v>
       </c>
       <c r="L13">
-        <v>113.3</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>97.6</v>
+        <v>98.4</v>
       </c>
       <c r="O13">
-        <v>0.27800000000000002</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="P13">
-        <v>0.38200000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="Q13">
-        <v>0.58099999999999996</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="S13">
-        <v>0.53900000000000003</v>
+        <v>0.54</v>
       </c>
       <c r="T13">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
       <c r="U13">
-        <v>24.4</v>
+        <v>23</v>
       </c>
       <c r="V13">
-        <v>0.22600000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="X13">
-        <v>0.53</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="Y13">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="Z13">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="AA13">
-        <v>0.19</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="AC13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AD13">
-        <v>59288</v>
+        <v>5817</v>
       </c>
       <c r="AE13">
-        <v>1647</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>27.4</v>
+        <v>25.1</v>
       </c>
       <c r="D14">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="I14">
-        <v>0.01</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="J14">
-        <v>1.81</v>
+        <v>1.32</v>
       </c>
       <c r="K14">
-        <v>117.8</v>
+        <v>114</v>
       </c>
       <c r="L14">
-        <v>116</v>
+        <v>112.5</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N14">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="O14">
-        <v>0.23799999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="P14">
-        <v>0.44800000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="Q14">
-        <v>0.57699999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="S14">
-        <v>0.54</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="T14">
-        <v>9.9</v>
+        <v>12.5</v>
       </c>
       <c r="U14">
-        <v>23</v>
+        <v>24.3</v>
       </c>
       <c r="V14">
-        <v>0.19500000000000001</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="X14">
-        <v>0.54600000000000004</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="Y14">
-        <v>11.2</v>
+        <v>12.8</v>
       </c>
       <c r="Z14">
-        <v>77.5</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="AA14">
-        <v>0.20300000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="AC14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AD14">
-        <v>5817</v>
+        <v>30067</v>
       </c>
       <c r="AE14">
-        <v>162</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>25.1</v>
+        <v>26.7</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>1.46</v>
+        <v>1.06</v>
       </c>
       <c r="I15">
-        <v>-0.14000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="J15">
-        <v>1.32</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K15">
-        <v>114</v>
+        <v>111.1</v>
       </c>
       <c r="L15">
-        <v>112.5</v>
+        <v>110.1</v>
       </c>
       <c r="M15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>98.3</v>
+        <v>102.2</v>
       </c>
       <c r="O15">
-        <v>0.23400000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="P15">
-        <v>0.40899999999999997</v>
+        <v>0.439</v>
       </c>
       <c r="Q15">
-        <v>0.57399999999999995</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="S15">
-        <v>0.54300000000000004</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="T15">
-        <v>12.5</v>
+        <v>13.3</v>
       </c>
       <c r="U15">
-        <v>24.3</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="V15">
-        <v>0.18099999999999999</v>
+        <v>0.188</v>
       </c>
       <c r="X15">
-        <v>0.53900000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="Y15">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="Z15">
-        <v>78.099999999999994</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="AA15">
-        <v>0.215</v>
+        <v>0.223</v>
       </c>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD15">
-        <v>30067</v>
+        <v>33457</v>
       </c>
       <c r="AE15">
-        <v>835</v>
+        <v>929</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>26.7</v>
+        <v>24.2</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <v>38</v>
@@ -6921,170 +7008,164 @@
         <v>34</v>
       </c>
       <c r="H16">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="I16">
         <v>0.04</v>
       </c>
       <c r="J16">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="K16">
-        <v>111.1</v>
+        <v>112</v>
       </c>
       <c r="L16">
-        <v>110.1</v>
+        <v>111</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>102.2</v>
+        <v>100.4</v>
       </c>
       <c r="O16">
-        <v>0.23899999999999999</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="P16">
-        <v>0.439</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="Q16">
-        <v>0.58299999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S16">
-        <v>0.55100000000000005</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="T16">
-        <v>13.3</v>
+        <v>11.6</v>
       </c>
       <c r="U16">
-        <v>17.899999999999999</v>
+        <v>24.2</v>
       </c>
       <c r="V16">
-        <v>0.188</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="X16">
-        <v>0.52200000000000002</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="Y16">
         <v>13.1</v>
       </c>
       <c r="Z16">
-        <v>76.599999999999994</v>
+        <v>78.3</v>
       </c>
       <c r="AA16">
-        <v>0.223</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="AC16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AD16">
-        <v>33457</v>
+        <v>61449</v>
       </c>
       <c r="AE16">
-        <v>929</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>24.2</v>
+        <v>27.4</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>1.03</v>
+        <v>0.03</v>
       </c>
       <c r="I17">
-        <v>0.04</v>
+        <v>-0.09</v>
       </c>
       <c r="J17">
-        <v>1.07</v>
+        <v>-0.06</v>
       </c>
       <c r="K17">
-        <v>112</v>
+        <v>111.2</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>111.2</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>100.4</v>
+        <v>96.6</v>
       </c>
       <c r="O17">
-        <v>0.23200000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="P17">
-        <v>0.34200000000000003</v>
+        <v>0.432</v>
       </c>
       <c r="Q17">
-        <v>0.56000000000000005</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="S17">
-        <v>0.52800000000000002</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="T17">
-        <v>11.6</v>
+        <v>13.1</v>
       </c>
       <c r="U17">
-        <v>24.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="V17">
-        <v>0.17899999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="X17">
-        <v>0.53500000000000003</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="Y17">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="Z17">
-        <v>78.3</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="AA17">
-        <v>0.19600000000000001</v>
+        <v>0.183</v>
       </c>
       <c r="AC17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD17">
-        <v>61449</v>
-      </c>
-      <c r="AE17">
-        <v>1707</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>36</v>
@@ -7093,158 +7174,164 @@
         <v>36</v>
       </c>
       <c r="H18">
-        <v>0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="I18">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="J18">
-        <v>-0.06</v>
+        <v>-0.13</v>
       </c>
       <c r="K18">
-        <v>111.2</v>
+        <v>112.4</v>
       </c>
       <c r="L18">
-        <v>111.2</v>
+        <v>112.4</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>96.6</v>
+        <v>101.6</v>
       </c>
       <c r="O18">
-        <v>0.252</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="P18">
-        <v>0.432</v>
+        <v>0.372</v>
       </c>
       <c r="Q18">
-        <v>0.58099999999999996</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="S18">
-        <v>0.54600000000000004</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="T18">
-        <v>13.1</v>
+        <v>11.9</v>
       </c>
       <c r="U18">
-        <v>19.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="V18">
-        <v>0.19900000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="X18">
-        <v>0.54200000000000004</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="Y18">
-        <v>13.8</v>
+        <v>12.7</v>
       </c>
       <c r="Z18">
-        <v>77.900000000000006</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="AA18">
-        <v>0.183</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="AC18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>24.8</v>
+      </c>
+      <c r="D19">
         <v>31</v>
       </c>
-      <c r="C19">
-        <v>26.5</v>
-      </c>
-      <c r="D19">
-        <v>34</v>
-      </c>
       <c r="E19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>-0.04</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="I19">
-        <v>-0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J19">
-        <v>-0.13</v>
+        <v>-0.2</v>
       </c>
       <c r="K19">
-        <v>112.4</v>
+        <v>113.5</v>
       </c>
       <c r="L19">
-        <v>112.4</v>
+        <v>113.8</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N19">
-        <v>101.6</v>
+        <v>100.1</v>
       </c>
       <c r="O19">
-        <v>0.22700000000000001</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="P19">
-        <v>0.372</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="Q19">
-        <v>0.57499999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="S19">
-        <v>0.54200000000000004</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="T19">
+        <v>12.7</v>
+      </c>
+      <c r="U19">
+        <v>26.3</v>
+      </c>
+      <c r="V19">
+        <v>0.214</v>
+      </c>
+      <c r="X19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y19">
         <v>11.9</v>
       </c>
-      <c r="U19">
-        <v>20.2</v>
-      </c>
-      <c r="V19">
-        <v>0.18</v>
-      </c>
-      <c r="X19">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="Y19">
-        <v>12.7</v>
-      </c>
       <c r="Z19">
-        <v>74.900000000000006</v>
+        <v>80</v>
       </c>
       <c r="AA19">
-        <v>0.20100000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="AC19" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="AD19">
+        <v>93120</v>
+      </c>
+      <c r="AE19">
+        <v>2587</v>
       </c>
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>24.8</v>
+        <v>26.6</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>35</v>
@@ -7253,256 +7340,256 @@
         <v>37</v>
       </c>
       <c r="H20">
-        <v>-0.28999999999999998</v>
+        <v>-0.47</v>
       </c>
       <c r="I20">
-        <v>0.1</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="J20">
-        <v>-0.2</v>
+        <v>-0.54</v>
       </c>
       <c r="K20">
-        <v>113.5</v>
+        <v>112</v>
       </c>
       <c r="L20">
-        <v>113.8</v>
+        <v>112.5</v>
       </c>
       <c r="M20">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="N20">
-        <v>100.1</v>
+        <v>99.2</v>
       </c>
       <c r="O20">
-        <v>0.29299999999999998</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="P20">
-        <v>0.34200000000000003</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="Q20">
-        <v>0.56999999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="S20">
-        <v>0.53700000000000003</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="T20">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="U20">
-        <v>26.3</v>
+        <v>20.8</v>
       </c>
       <c r="V20">
-        <v>0.214</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="X20">
-        <v>0.55000000000000004</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="Y20">
-        <v>11.9</v>
+        <v>14.4</v>
       </c>
       <c r="Z20">
-        <v>80</v>
+        <v>76.3</v>
       </c>
       <c r="AA20">
-        <v>0.186</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="AC20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AD20">
-        <v>93120</v>
+        <v>26024</v>
       </c>
       <c r="AE20">
-        <v>2587</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>-0.47</v>
+        <v>-0.89</v>
       </c>
       <c r="I21">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="J21">
-        <v>-0.54</v>
+        <v>-0.94</v>
       </c>
       <c r="K21">
+        <v>111.1</v>
+      </c>
+      <c r="L21">
         <v>112</v>
       </c>
-      <c r="L21">
-        <v>112.5</v>
-      </c>
       <c r="M21">
-        <v>-0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="N21">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="O21">
-        <v>0.24099999999999999</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="P21">
-        <v>0.44400000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="Q21">
-        <v>0.56699999999999995</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="S21">
-        <v>0.52900000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="T21">
-        <v>11.9</v>
+        <v>13.6</v>
       </c>
       <c r="U21">
-        <v>20.8</v>
+        <v>22.3</v>
       </c>
       <c r="V21">
+        <v>0.156</v>
+      </c>
+      <c r="X21">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="Y21">
+        <v>11.6</v>
+      </c>
+      <c r="Z21">
+        <v>80.3</v>
+      </c>
+      <c r="AA21">
         <v>0.19600000000000001</v>
       </c>
-      <c r="X21">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="Y21">
-        <v>14.4</v>
-      </c>
-      <c r="Z21">
-        <v>76.3</v>
-      </c>
-      <c r="AA21">
-        <v>0.23400000000000001</v>
-      </c>
       <c r="AC21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD21">
-        <v>26024</v>
+        <v>13655</v>
       </c>
       <c r="AE21">
-        <v>723</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>26.2</v>
+      </c>
+      <c r="D22">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>-1.74</v>
+      </c>
+      <c r="I22">
+        <v>0.15</v>
+      </c>
+      <c r="J22">
+        <v>-1.58</v>
+      </c>
+      <c r="K22">
+        <v>111</v>
+      </c>
+      <c r="L22">
+        <v>112.8</v>
+      </c>
+      <c r="M22">
+        <v>-1.8</v>
+      </c>
+      <c r="N22">
+        <v>98.9</v>
+      </c>
+      <c r="O22">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="P22">
+        <v>0.314</v>
+      </c>
+      <c r="Q22">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="S22">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="T22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>25.6</v>
-      </c>
-      <c r="D22">
-        <v>31</v>
-      </c>
-      <c r="E22">
-        <v>41</v>
-      </c>
-      <c r="F22">
-        <v>34</v>
-      </c>
-      <c r="G22">
-        <v>38</v>
-      </c>
-      <c r="H22">
-        <v>-0.89</v>
-      </c>
-      <c r="I22">
-        <v>-0.05</v>
-      </c>
-      <c r="J22">
-        <v>-0.94</v>
-      </c>
-      <c r="K22">
-        <v>111.1</v>
-      </c>
-      <c r="L22">
-        <v>112</v>
-      </c>
-      <c r="M22">
-        <v>-0.9</v>
-      </c>
-      <c r="N22">
-        <v>99</v>
-      </c>
-      <c r="O22">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="P22">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="Q22">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="S22">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="T22">
-        <v>13.6</v>
-      </c>
-      <c r="U22">
-        <v>22.3</v>
-      </c>
       <c r="V22">
-        <v>0.156</v>
+        <v>0.192</v>
       </c>
       <c r="X22">
-        <v>0.53800000000000003</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="Y22">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="Z22">
-        <v>80.3</v>
+        <v>77.3</v>
       </c>
       <c r="AA22">
-        <v>0.19600000000000001</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="AC22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AD22">
-        <v>13655</v>
+        <v>61053</v>
       </c>
       <c r="AE22">
-        <v>379</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>32</v>
@@ -7511,84 +7598,84 @@
         <v>40</v>
       </c>
       <c r="H23">
-        <v>-1.74</v>
+        <v>-1.83</v>
       </c>
       <c r="I23">
-        <v>0.15</v>
+        <v>-0.01</v>
       </c>
       <c r="J23">
-        <v>-1.58</v>
+        <v>-1.85</v>
       </c>
       <c r="K23">
-        <v>111</v>
+        <v>111.2</v>
       </c>
       <c r="L23">
-        <v>112.8</v>
+        <v>113</v>
       </c>
       <c r="M23">
         <v>-1.8</v>
       </c>
       <c r="N23">
-        <v>98.9</v>
+        <v>104.1</v>
       </c>
       <c r="O23">
-        <v>0.24299999999999999</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="P23">
-        <v>0.314</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="Q23">
-        <v>0.55400000000000005</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="S23">
-        <v>0.51700000000000002</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="T23">
-        <v>10.199999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="U23">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="V23">
-        <v>0.192</v>
+        <v>0.221</v>
       </c>
       <c r="X23">
-        <v>0.54100000000000004</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="Y23">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="Z23">
-        <v>77.3</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="AA23">
-        <v>0.17399999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="AC23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AD23">
-        <v>61053</v>
+        <v>19198</v>
       </c>
       <c r="AE23">
-        <v>1696</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>26.6</v>
+        <v>24.6</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <v>32</v>
@@ -7597,642 +7684,642 @@
         <v>40</v>
       </c>
       <c r="H24">
-        <v>-1.83</v>
+        <v>-1.93</v>
       </c>
       <c r="I24">
         <v>-0.01</v>
       </c>
       <c r="J24">
-        <v>-1.85</v>
+        <v>-1.94</v>
       </c>
       <c r="K24">
-        <v>111.2</v>
+        <v>110.9</v>
       </c>
       <c r="L24">
-        <v>113</v>
+        <v>112.8</v>
       </c>
       <c r="M24">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="N24">
-        <v>104.1</v>
+        <v>98.3</v>
       </c>
       <c r="O24">
-        <v>0.28799999999999998</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="P24">
-        <v>0.31900000000000001</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="Q24">
-        <v>0.56899999999999995</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="S24">
-        <v>0.53100000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="T24">
-        <v>12.3</v>
+        <v>13.3</v>
       </c>
       <c r="U24">
-        <v>21.3</v>
+        <v>23.5</v>
       </c>
       <c r="V24">
-        <v>0.221</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="X24">
-        <v>0.53900000000000003</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y24">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="Z24">
-        <v>77.599999999999994</v>
+        <v>75.7</v>
       </c>
       <c r="AA24">
-        <v>0.217</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="AC24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD24">
-        <v>19198</v>
+        <v>68255</v>
       </c>
       <c r="AE24">
-        <v>533</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C25">
-        <v>24.6</v>
+        <v>25.6</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G25">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H25">
-        <v>-1.93</v>
+        <v>-3.68</v>
       </c>
       <c r="I25">
-        <v>-0.01</v>
+        <v>0.23</v>
       </c>
       <c r="J25">
-        <v>-1.94</v>
+        <v>-3.45</v>
       </c>
       <c r="K25">
-        <v>110.9</v>
+        <v>113.6</v>
       </c>
       <c r="L25">
-        <v>112.8</v>
+        <v>117.2</v>
       </c>
       <c r="M25">
-        <v>-1.9</v>
+        <v>-3.6</v>
       </c>
       <c r="N25">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="O25">
-        <v>0.23799999999999999</v>
+        <v>0.248</v>
       </c>
       <c r="P25">
-        <v>0.42199999999999999</v>
+        <v>0.376</v>
       </c>
       <c r="Q25">
-        <v>0.56399999999999995</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="S25">
-        <v>0.53200000000000003</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="T25">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="U25">
-        <v>23.5</v>
+        <v>21.3</v>
       </c>
       <c r="V25">
-        <v>0.18099999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="X25">
-        <v>0.55000000000000004</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="Y25">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
       <c r="Z25">
-        <v>75.7</v>
+        <v>75</v>
       </c>
       <c r="AA25">
-        <v>0.16300000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="AC25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD25">
-        <v>68255</v>
-      </c>
-      <c r="AE25">
-        <v>1896</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>25.6</v>
+        <v>24.5</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F26">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G26">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H26">
-        <v>-3.68</v>
+        <v>-4.47</v>
       </c>
       <c r="I26">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="J26">
-        <v>-3.45</v>
+        <v>-4.38</v>
       </c>
       <c r="K26">
-        <v>113.6</v>
+        <v>108</v>
       </c>
       <c r="L26">
-        <v>117.2</v>
+        <v>112.5</v>
       </c>
       <c r="M26">
-        <v>-3.6</v>
+        <v>-4.5</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>97.9</v>
       </c>
       <c r="O26">
-        <v>0.248</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="P26">
-        <v>0.376</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="Q26">
-        <v>0.57799999999999996</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="S26">
-        <v>0.54900000000000004</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="T26">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="U26">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="V26">
-        <v>0.185</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="X26">
-        <v>0.55700000000000005</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="Y26">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="Z26">
-        <v>75</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="AA26">
-        <v>0.19900000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AC26" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="AD26">
+        <v>14250</v>
+      </c>
+      <c r="AE26">
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C27">
-        <v>24.5</v>
+        <v>23.2</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G27">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H27">
-        <v>-4.47</v>
+        <v>-5.56</v>
       </c>
       <c r="I27">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="J27">
-        <v>-4.38</v>
+        <v>-5.25</v>
       </c>
       <c r="K27">
-        <v>108</v>
+        <v>109.5</v>
       </c>
       <c r="L27">
-        <v>112.5</v>
+        <v>115</v>
       </c>
       <c r="M27">
-        <v>-4.5</v>
+        <v>-5.5</v>
       </c>
       <c r="N27">
-        <v>97.9</v>
+        <v>101.6</v>
       </c>
       <c r="O27">
-        <v>0.27300000000000002</v>
+        <v>0.254</v>
       </c>
       <c r="P27">
-        <v>0.38500000000000001</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="Q27">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S27">
+        <v>0.52</v>
+      </c>
+      <c r="T27">
+        <v>12.4</v>
+      </c>
+      <c r="U27">
+        <v>22.7</v>
+      </c>
+      <c r="V27">
+        <v>0.193</v>
+      </c>
+      <c r="X27">
         <v>0.55600000000000005</v>
       </c>
-      <c r="S27">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="T27">
-        <v>13.5</v>
-      </c>
-      <c r="U27">
-        <v>21.9</v>
-      </c>
-      <c r="V27">
+      <c r="Y27">
+        <v>13.3</v>
+      </c>
+      <c r="Z27">
+        <v>76.8</v>
+      </c>
+      <c r="AA27">
         <v>0.20699999999999999</v>
       </c>
-      <c r="X27">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="Y27">
-        <v>12.6</v>
-      </c>
-      <c r="Z27">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="AA27">
-        <v>0.19500000000000001</v>
-      </c>
       <c r="AC27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AD27">
-        <v>14250</v>
+        <v>15774</v>
       </c>
       <c r="AE27">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C28">
-        <v>23.2</v>
+        <v>26.5</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G28">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H28">
-        <v>-5.56</v>
+        <v>-7.9</v>
       </c>
       <c r="I28">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="J28">
-        <v>-5.25</v>
+        <v>-7.5</v>
       </c>
       <c r="K28">
-        <v>109.5</v>
+        <v>107.1</v>
       </c>
       <c r="L28">
-        <v>115</v>
+        <v>114.9</v>
       </c>
       <c r="M28">
-        <v>-5.5</v>
+        <v>-7.8</v>
       </c>
       <c r="N28">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="O28">
-        <v>0.254</v>
+        <v>0.252</v>
       </c>
       <c r="P28">
-        <v>0.41299999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="Q28">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="S28">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="T28">
+        <v>13</v>
+      </c>
+      <c r="U28">
+        <v>19.8</v>
+      </c>
+      <c r="V28">
+        <v>0.187</v>
+      </c>
+      <c r="X28">
         <v>0.55500000000000005</v>
       </c>
-      <c r="S28">
-        <v>0.52</v>
-      </c>
-      <c r="T28">
-        <v>12.4</v>
-      </c>
-      <c r="U28">
-        <v>22.7</v>
-      </c>
-      <c r="V28">
-        <v>0.193</v>
-      </c>
-      <c r="X28">
-        <v>0.55600000000000005</v>
-      </c>
       <c r="Y28">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="Z28">
-        <v>76.8</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="AA28">
-        <v>0.20699999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="AC28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AD28">
-        <v>15774</v>
+        <v>117009</v>
       </c>
       <c r="AE28">
-        <v>438</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>26.5</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G29">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H29">
-        <v>-7.9</v>
+        <v>-8.44</v>
       </c>
       <c r="I29">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="J29">
-        <v>-7.5</v>
+        <v>-8.19</v>
       </c>
       <c r="K29">
-        <v>107.1</v>
+        <v>105.8</v>
       </c>
       <c r="L29">
-        <v>114.9</v>
+        <v>114.4</v>
       </c>
       <c r="M29">
-        <v>-7.8</v>
+        <v>-8.6</v>
       </c>
       <c r="N29">
-        <v>101.4</v>
+        <v>97.3</v>
       </c>
       <c r="O29">
-        <v>0.252</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="P29">
-        <v>0.45900000000000002</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="Q29">
-        <v>0.55300000000000005</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="S29">
-        <v>0.52100000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="T29">
+        <v>13.9</v>
+      </c>
+      <c r="U29">
+        <v>23.6</v>
+      </c>
+      <c r="V29">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="X29">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="Y29">
         <v>13</v>
       </c>
-      <c r="U29">
-        <v>19.8</v>
-      </c>
-      <c r="V29">
-        <v>0.187</v>
-      </c>
-      <c r="X29">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="Y29">
-        <v>12.9</v>
-      </c>
       <c r="Z29">
-        <v>77.099999999999994</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="AA29">
-        <v>0.20100000000000001</v>
+        <v>0.183</v>
       </c>
       <c r="AC29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD29">
-        <v>117009</v>
+        <v>91476</v>
       </c>
       <c r="AE29">
-        <v>3250</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>25.6</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H30">
-        <v>-8.44</v>
+        <v>-9.31</v>
       </c>
       <c r="I30">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J30">
-        <v>-8.19</v>
+        <v>-9.02</v>
       </c>
       <c r="K30">
-        <v>105.8</v>
+        <v>105.1</v>
       </c>
       <c r="L30">
-        <v>114.4</v>
+        <v>114.5</v>
       </c>
       <c r="M30">
-        <v>-8.6</v>
+        <v>-9.4</v>
       </c>
       <c r="N30">
-        <v>97.3</v>
+        <v>98.7</v>
       </c>
       <c r="O30">
-        <v>0.26100000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="P30">
-        <v>0.34699999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="Q30">
-        <v>0.54300000000000004</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="S30">
-        <v>0.50800000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="T30">
-        <v>13.9</v>
+        <v>11.5</v>
       </c>
       <c r="U30">
-        <v>23.6</v>
+        <v>21.6</v>
       </c>
       <c r="V30">
-        <v>0.19400000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="X30">
-        <v>0.55600000000000005</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="Y30">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z30">
-        <v>76.599999999999994</v>
+        <v>78.2</v>
       </c>
       <c r="AA30">
-        <v>0.183</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="AC30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AD30">
-        <v>91476</v>
+        <v>126463</v>
       </c>
       <c r="AE30">
-        <v>2541</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31">
-        <v>25.6</v>
+        <v>22.8</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G31">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H31">
-        <v>-9.31</v>
+        <v>-10.64</v>
       </c>
       <c r="I31">
-        <v>0.28999999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="J31">
-        <v>-9.02</v>
+        <v>-10.130000000000001</v>
       </c>
       <c r="K31">
-        <v>105.1</v>
+        <v>103.5</v>
       </c>
       <c r="L31">
-        <v>114.5</v>
+        <v>114</v>
       </c>
       <c r="M31">
-        <v>-9.4</v>
+        <v>-10.5</v>
       </c>
       <c r="N31">
-        <v>98.7</v>
+        <v>101</v>
       </c>
       <c r="O31">
-        <v>0.24</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="P31">
-        <v>0.35599999999999998</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="Q31">
-        <v>0.52700000000000002</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="S31">
-        <v>0.49</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="T31">
-        <v>11.5</v>
+        <v>14.2</v>
       </c>
       <c r="U31">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="V31">
-        <v>0.186</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="X31">
         <v>0.54700000000000004</v>
@@ -8241,170 +8328,84 @@
         <v>11.5</v>
       </c>
       <c r="Z31">
-        <v>78.2</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="AA31">
-        <v>0.16900000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="AC31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD31">
-        <v>126463</v>
-      </c>
-      <c r="AE31">
-        <v>3513</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C32">
-        <v>22.8</v>
-      </c>
-      <c r="D32">
-        <v>22</v>
-      </c>
-      <c r="E32">
-        <v>50</v>
+        <v>26.3</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G32">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>-10.64</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>-10.130000000000001</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>103.5</v>
+        <v>112.3</v>
       </c>
       <c r="L32">
-        <v>114</v>
-      </c>
-      <c r="M32">
-        <v>-10.5</v>
+        <v>112.3</v>
       </c>
       <c r="N32">
-        <v>101</v>
+        <v>99.2</v>
       </c>
       <c r="O32">
-        <v>0.24199999999999999</v>
+        <v>0.247</v>
       </c>
       <c r="P32">
-        <v>0.39900000000000002</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="Q32">
-        <v>0.53900000000000003</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="S32">
-        <v>0.50900000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="T32">
-        <v>14.2</v>
+        <v>12.4</v>
       </c>
       <c r="U32">
-        <v>21.2</v>
+        <v>22.2</v>
       </c>
       <c r="V32">
-        <v>0.17599999999999999</v>
+        <v>0.192</v>
       </c>
       <c r="X32">
-        <v>0.54700000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="Y32">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="Z32">
-        <v>77.900000000000006</v>
+        <v>77.8</v>
       </c>
       <c r="AA32">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31">
-      <c r="A33" s="2"/>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33">
-        <v>26.3</v>
-      </c>
-      <c r="F33">
-        <v>36</v>
-      </c>
-      <c r="G33">
-        <v>36</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>112.3</v>
-      </c>
-      <c r="L33">
-        <v>112.3</v>
-      </c>
-      <c r="N33">
-        <v>99.2</v>
-      </c>
-      <c r="O33">
-        <v>0.247</v>
-      </c>
-      <c r="P33">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="Q33">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="S33">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="T33">
-        <v>12.4</v>
-      </c>
-      <c r="U33">
-        <v>22.2</v>
-      </c>
-      <c r="V33">
         <v>0.192</v>
       </c>
-      <c r="X33">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="Y33">
-        <v>12.4</v>
-      </c>
-      <c r="Z33">
-        <v>77.8</v>
-      </c>
-      <c r="AA33">
-        <v>0.192</v>
-      </c>
-      <c r="AD33">
+      <c r="AD32">
         <v>49476</v>
       </c>
-      <c r="AE33">
+      <c r="AE32">
         <v>1374</v>
       </c>
     </row>
@@ -8415,250 +8416,273 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AFC3F5-E9F3-41F4-9CA0-689026DA647B}">
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="22" max="22" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
       <c r="H1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="S1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="T1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="V1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="W1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="Y1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Z1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AB1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="AC1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="AE1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="AF1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="AH1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="AI1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>17405</v>
+      </c>
+      <c r="E2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F2">
+        <v>13.9</v>
+      </c>
+      <c r="H2">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="P2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="Q2">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="R2">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="S2">
+        <v>0.442</v>
+      </c>
+      <c r="T2">
+        <v>0.373</v>
+      </c>
+      <c r="V2">
+        <v>0.504</v>
+      </c>
+      <c r="W2">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="Y2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Z2">
+        <v>368</v>
+      </c>
+      <c r="AB2">
+        <v>0.252</v>
+      </c>
+      <c r="AC2">
+        <v>818</v>
+      </c>
+      <c r="AE2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>0.4</v>
+      </c>
+      <c r="AH2">
+        <v>9</v>
+      </c>
+      <c r="AI2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="3">
-        <v>44472</v>
-      </c>
-      <c r="K2" s="4">
-        <v>42644</v>
-      </c>
-      <c r="L2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>44472</v>
-      </c>
-      <c r="R2" s="4">
-        <v>42644</v>
-      </c>
-      <c r="S2" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>72</v>
       </c>
       <c r="D3">
-        <v>17405</v>
+        <v>17380</v>
       </c>
       <c r="E3">
-        <v>0.46800000000000003</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="F3">
-        <v>13.9</v>
+        <v>14.7</v>
       </c>
       <c r="H3">
-        <v>0.61799999999999999</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="I3">
-        <v>0.25900000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="J3">
-        <v>0.17799999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="K3">
-        <v>0.11899999999999999</v>
+        <v>9.4E-2</v>
       </c>
       <c r="L3">
-        <v>6.0999999999999999E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="M3">
-        <v>0.38200000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="O3">
-        <v>0.52600000000000002</v>
+        <v>0.53</v>
       </c>
       <c r="P3">
-        <v>0.65600000000000003</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="Q3">
-        <v>0.41499999999999998</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="R3">
-        <v>0.45400000000000001</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="S3">
-        <v>0.442</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="T3">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="V3">
-        <v>0.504</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="W3">
-        <v>0.79100000000000004</v>
+        <v>0.746</v>
       </c>
       <c r="Y3">
-        <v>6.5000000000000002E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Z3">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="AB3">
-        <v>0.252</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="AC3">
-        <v>818</v>
+        <v>941</v>
       </c>
       <c r="AE3">
-        <v>0.20699999999999999</v>
+        <v>0.191</v>
       </c>
       <c r="AF3">
-        <v>0.4</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="AH3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -8666,85 +8690,85 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>72</v>
       </c>
       <c r="D4">
-        <v>17380</v>
+        <v>17405</v>
       </c>
       <c r="E4">
-        <v>0.46600000000000003</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="F4">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="H4">
-        <v>0.59099999999999997</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="I4">
-        <v>0.218</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="J4">
-        <v>0.20799999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="K4">
-        <v>9.4E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="L4">
-        <v>7.0999999999999994E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M4">
-        <v>0.40899999999999997</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="O4">
-        <v>0.53</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="P4">
         <v>0.69299999999999995</v>
       </c>
       <c r="Q4">
-        <v>0.45300000000000001</v>
+        <v>0.443</v>
       </c>
       <c r="R4">
-        <v>0.41199999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="S4">
-        <v>0.41399999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="T4">
-        <v>0.374</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="V4">
-        <v>0.47799999999999998</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="W4">
-        <v>0.746</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="Y4">
-        <v>5.3999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="Z4">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="AB4">
-        <v>0.26300000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="AC4">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="AE4">
-        <v>0.191</v>
+        <v>0.22</v>
       </c>
       <c r="AF4">
-        <v>0.39300000000000002</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="AH4">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -8752,257 +8776,257 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>72</v>
       </c>
       <c r="D5">
-        <v>17405</v>
+        <v>17380</v>
       </c>
       <c r="E5">
-        <v>0.49399999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="F5">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="H5">
-        <v>0.58699999999999997</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="I5">
-        <v>0.27100000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J5">
-        <v>0.16400000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="K5">
-        <v>9.7000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L5">
-        <v>5.5E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="M5">
-        <v>0.41299999999999998</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="O5">
-        <v>0.56499999999999995</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="P5">
-        <v>0.69299999999999995</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="Q5">
-        <v>0.443</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="R5">
-        <v>0.48</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="S5">
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="T5">
-        <v>0.39200000000000002</v>
+        <v>0.37</v>
       </c>
       <c r="V5">
-        <v>0.53600000000000003</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="W5">
-        <v>0.79500000000000004</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="Y5">
-        <v>6.2E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Z5">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="AB5">
-        <v>0.26100000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="AC5">
-        <v>936</v>
+        <v>1021</v>
       </c>
       <c r="AE5">
-        <v>0.22</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="AF5">
-        <v>0.40799999999999997</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="AH5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>72</v>
       </c>
       <c r="D6">
-        <v>17380</v>
+        <v>17355</v>
       </c>
       <c r="E6">
-        <v>0.47599999999999998</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F6">
-        <v>13.8</v>
+        <v>14.2</v>
       </c>
       <c r="H6">
-        <v>0.61699999999999999</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="I6">
-        <v>0.27500000000000002</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="J6">
-        <v>0.17799999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="K6">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L6">
-        <v>7.9000000000000001E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="M6">
-        <v>0.38300000000000001</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="O6">
-        <v>0.54200000000000004</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="P6">
-        <v>0.67200000000000004</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.44700000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="R6">
-        <v>0.42799999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="S6">
-        <v>0.42499999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="T6">
-        <v>0.37</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="V6">
-        <v>0.54900000000000004</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="W6">
-        <v>0.83799999999999997</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="Y6">
-        <v>4.8000000000000001E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Z6">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="AB6">
-        <v>0.28199999999999997</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="AC6">
-        <v>1021</v>
+        <v>907</v>
       </c>
       <c r="AE6">
-        <v>0.23100000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="AF6">
-        <v>0.42699999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="AH6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>72</v>
       </c>
       <c r="D7">
-        <v>17355</v>
+        <v>17430</v>
       </c>
       <c r="E7">
-        <v>0.45500000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="F7">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
       <c r="H7">
-        <v>0.57799999999999996</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="I7">
-        <v>0.28299999999999997</v>
+        <v>0.31</v>
       </c>
       <c r="J7">
-        <v>0.16600000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="K7">
-        <v>7.0999999999999994E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L7">
-        <v>5.8999999999999997E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="M7">
-        <v>0.42199999999999999</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="O7">
-        <v>0.51700000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="P7">
-        <v>0.63700000000000001</v>
+        <v>0.626</v>
       </c>
       <c r="Q7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="R7">
         <v>0.4</v>
       </c>
-      <c r="R7">
-        <v>0.41799999999999998</v>
-      </c>
       <c r="S7">
-        <v>0.38700000000000001</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="T7">
-        <v>0.36899999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="V7">
-        <v>0.58899999999999997</v>
+        <v>0.54</v>
       </c>
       <c r="W7">
-        <v>0.83099999999999996</v>
+        <v>0.84</v>
       </c>
       <c r="Y7">
-        <v>6.3E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="Z7">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AB7">
-        <v>0.28100000000000003</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="AC7">
-        <v>907</v>
+        <v>946</v>
       </c>
       <c r="AE7">
-        <v>0.221</v>
+        <v>0.22</v>
       </c>
       <c r="AF7">
-        <v>0.42099999999999999</v>
+        <v>0.376</v>
       </c>
       <c r="AH7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -9010,257 +9034,257 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>72</v>
       </c>
       <c r="D8">
-        <v>17430</v>
+        <v>17305</v>
       </c>
       <c r="E8">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="F8">
-        <v>12.6</v>
+        <v>15.3</v>
       </c>
       <c r="H8">
-        <v>0.65300000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="I8">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="J8">
-        <v>0.21099999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="K8">
-        <v>8.5000000000000006E-2</v>
+        <v>0.111</v>
       </c>
       <c r="L8">
-        <v>4.7E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="M8">
-        <v>0.34699999999999998</v>
+        <v>0.436</v>
       </c>
       <c r="O8">
-        <v>0.51</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="P8">
-        <v>0.626</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="Q8">
-        <v>0.41899999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="R8">
-        <v>0.4</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="S8">
-        <v>0.35399999999999998</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="T8">
-        <v>0.33600000000000002</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="V8">
-        <v>0.54</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="W8">
-        <v>0.84</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="Y8">
-        <v>6.0999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z8">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="AB8">
-        <v>0.28899999999999998</v>
+        <v>0.215</v>
       </c>
       <c r="AC8">
-        <v>946</v>
+        <v>796</v>
       </c>
       <c r="AE8">
-        <v>0.22</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="AF8">
-        <v>0.376</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="AH8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>72</v>
       </c>
       <c r="D9">
-        <v>17305</v>
+        <v>17480</v>
       </c>
       <c r="E9">
-        <v>0.47</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="F9">
-        <v>15.3</v>
+        <v>14.1</v>
       </c>
       <c r="H9">
-        <v>0.56399999999999995</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="I9">
-        <v>0.23</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="J9">
-        <v>0.152</v>
+        <v>0.215</v>
       </c>
       <c r="K9">
-        <v>0.111</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L9">
-        <v>7.0999999999999994E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M9">
-        <v>0.436</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="O9">
-        <v>0.55400000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="P9">
-        <v>0.71499999999999997</v>
+        <v>0.73</v>
       </c>
       <c r="Q9">
+        <v>0.46</v>
+      </c>
+      <c r="R9">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="T9">
+        <v>0.377</v>
+      </c>
+      <c r="V9">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="W9">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="Y9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Z9">
+        <v>295</v>
+      </c>
+      <c r="AB9">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AC9">
+        <v>1005</v>
+      </c>
+      <c r="AE9">
+        <v>0.219</v>
+      </c>
+      <c r="AF9">
         <v>0.42899999999999999</v>
       </c>
-      <c r="R9">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="S9">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="T9">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="V9">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="W9">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="Y9">
-        <v>5.5E-2</v>
-      </c>
-      <c r="Z9">
-        <v>291</v>
-      </c>
-      <c r="AB9">
-        <v>0.215</v>
-      </c>
-      <c r="AC9">
-        <v>796</v>
-      </c>
-      <c r="AE9">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="AF9">
-        <v>0.36799999999999999</v>
-      </c>
       <c r="AH9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>72</v>
       </c>
       <c r="D10">
-        <v>17480</v>
+        <v>17430</v>
       </c>
       <c r="E10">
-        <v>0.48499999999999999</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="F10">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="H10">
-        <v>0.61699999999999999</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="I10">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.21</v>
+      </c>
+      <c r="K10">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.06</v>
+      </c>
+      <c r="M10">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.66</v>
+      </c>
+      <c r="Q10">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="R10">
+        <v>0.36</v>
+      </c>
+      <c r="S10">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="V10">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="W10">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="Y10">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Z10">
+        <v>312</v>
+      </c>
+      <c r="AB10">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>1014</v>
+      </c>
+      <c r="AE10">
         <v>0.22600000000000001</v>
       </c>
-      <c r="J10">
-        <v>0.215</v>
-      </c>
-      <c r="K10">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="L10">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="M10">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="P10">
-        <v>0.73</v>
-      </c>
-      <c r="Q10">
-        <v>0.46</v>
-      </c>
-      <c r="R10">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="S10">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="T10">
-        <v>0.377</v>
-      </c>
-      <c r="V10">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="W10">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="Y10">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="Z10">
-        <v>295</v>
-      </c>
-      <c r="AB10">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="AC10">
-        <v>1005</v>
-      </c>
-      <c r="AE10">
-        <v>0.219</v>
-      </c>
       <c r="AF10">
-        <v>0.42899999999999999</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="AH10">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -9268,96 +9292,96 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>72</v>
       </c>
       <c r="D11">
-        <v>17430</v>
+        <v>17305</v>
       </c>
       <c r="E11">
-        <v>0.45200000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="F11">
-        <v>13.5</v>
+        <v>15.3</v>
       </c>
       <c r="H11">
-        <v>0.61499999999999999</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="I11">
-        <v>0.27300000000000002</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="J11">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="K11">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L11">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.439</v>
+      </c>
+      <c r="O11">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="P11">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="Q11">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="S11">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="T11">
+        <v>0.376</v>
+      </c>
+      <c r="V11">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="W11">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="Y11">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Z11">
+        <v>370</v>
+      </c>
+      <c r="AB11">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>962</v>
+      </c>
+      <c r="AE11">
         <v>0.21</v>
       </c>
-      <c r="K11">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="L11">
-        <v>0.06</v>
-      </c>
-      <c r="M11">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="P11">
-        <v>0.66</v>
-      </c>
-      <c r="Q11">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="R11">
-        <v>0.36</v>
-      </c>
-      <c r="S11">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="T11">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="V11">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="W11">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="Y11">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="Z11">
-        <v>312</v>
-      </c>
-      <c r="AB11">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="AC11">
-        <v>1014</v>
-      </c>
-      <c r="AE11">
-        <v>0.22600000000000001</v>
-      </c>
       <c r="AF11">
-        <v>0.35099999999999998</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="AH11">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>72</v>
@@ -9366,73 +9390,73 @@
         <v>17305</v>
       </c>
       <c r="E12">
-        <v>0.46800000000000003</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F12">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="H12">
-        <v>0.56100000000000005</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="I12">
-        <v>0.22900000000000001</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="J12">
-        <v>0.18099999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="K12">
-        <v>7.1999999999999995E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L12">
-        <v>7.9000000000000001E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="M12">
-        <v>0.439</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="O12">
-        <v>0.54100000000000004</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="P12">
-        <v>0.70899999999999996</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="Q12">
-        <v>0.44900000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="R12">
-        <v>0.40200000000000002</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="S12">
-        <v>0.39100000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="T12">
-        <v>0.376</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="V12">
-        <v>0.59499999999999997</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="W12">
-        <v>0.80600000000000005</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="Y12">
-        <v>6.4000000000000001E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Z12">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="AB12">
-        <v>0.26700000000000002</v>
+        <v>0.309</v>
       </c>
       <c r="AC12">
-        <v>962</v>
+        <v>1091</v>
       </c>
       <c r="AE12">
-        <v>0.21</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="AF12">
-        <v>0.40200000000000002</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="AH12">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AI12">
         <v>1</v>
@@ -9440,343 +9464,343 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>72</v>
       </c>
       <c r="D13">
-        <v>17305</v>
+        <v>17455</v>
       </c>
       <c r="E13">
-        <v>0.44400000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="F13">
-        <v>14.7</v>
+        <v>13.2</v>
       </c>
       <c r="H13">
-        <v>0.54100000000000004</v>
+        <v>0.628</v>
       </c>
       <c r="I13">
-        <v>0.28399999999999997</v>
+        <v>0.316</v>
       </c>
       <c r="J13">
-        <v>0.158</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="K13">
-        <v>4.2999999999999997E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L13">
-        <v>5.6000000000000001E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="M13">
-        <v>0.45900000000000002</v>
+        <v>0.372</v>
       </c>
       <c r="O13">
-        <v>0.53200000000000003</v>
+        <v>0.54</v>
       </c>
       <c r="P13">
-        <v>0.68300000000000005</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="Q13">
-        <v>0.38500000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="R13">
-        <v>0.35399999999999998</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="S13">
-        <v>0.317</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="T13">
-        <v>0.33900000000000002</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="V13">
-        <v>0.48599999999999999</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="W13">
-        <v>0.81399999999999995</v>
+        <v>0.88</v>
       </c>
       <c r="Y13">
-        <v>5.6000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Z13">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="AB13">
-        <v>0.309</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="AC13">
-        <v>1091</v>
+        <v>1301</v>
       </c>
       <c r="AE13">
-        <v>0.22700000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="AF13">
-        <v>0.34200000000000003</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="AH13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>72</v>
       </c>
       <c r="D14">
-        <v>17455</v>
+        <v>17280</v>
       </c>
       <c r="E14">
-        <v>0.47399999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="F14">
-        <v>13.2</v>
+        <v>14.8</v>
       </c>
       <c r="H14">
-        <v>0.628</v>
+        <v>0.6</v>
       </c>
       <c r="I14">
-        <v>0.316</v>
+        <v>0.219</v>
       </c>
       <c r="J14">
-        <v>0.17599999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="K14">
-        <v>8.1000000000000003E-2</v>
+        <v>0.121</v>
       </c>
       <c r="L14">
-        <v>5.3999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="M14">
-        <v>0.372</v>
+        <v>0.4</v>
       </c>
       <c r="O14">
-        <v>0.54</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="P14">
-        <v>0.65500000000000003</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="Q14">
-        <v>0.41399999999999998</v>
+        <v>0.432</v>
       </c>
       <c r="R14">
-        <v>0.44500000000000001</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="S14">
-        <v>0.41699999999999998</v>
+        <v>0.439</v>
       </c>
       <c r="T14">
-        <v>0.36399999999999999</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="V14">
-        <v>0.53500000000000003</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="W14">
-        <v>0.88</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="Y14">
-        <v>3.3000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Z14">
-        <v>198</v>
+        <v>326</v>
       </c>
       <c r="AB14">
-        <v>0.34100000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="AC14">
-        <v>1301</v>
+        <v>734</v>
       </c>
       <c r="AE14">
-        <v>0.21</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="AF14">
-        <v>0.42099999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="AH14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>72</v>
       </c>
       <c r="D15">
-        <v>17280</v>
+        <v>17455</v>
       </c>
       <c r="E15">
-        <v>0.48199999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="F15">
-        <v>14.8</v>
+        <v>13.5</v>
       </c>
       <c r="H15">
-        <v>0.6</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="I15">
-        <v>0.219</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="J15">
-        <v>0.16400000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="K15">
-        <v>0.121</v>
+        <v>0.105</v>
       </c>
       <c r="L15">
-        <v>9.5000000000000001E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="M15">
-        <v>0.4</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="O15">
-        <v>0.52900000000000003</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="P15">
-        <v>0.68799999999999994</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="Q15">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
       <c r="R15">
-        <v>0.44600000000000001</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="S15">
-        <v>0.439</v>
+        <v>0.35</v>
       </c>
       <c r="T15">
-        <v>0.41099999999999998</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="V15">
-        <v>0.45400000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="W15">
-        <v>0.83399999999999996</v>
+        <v>0.877</v>
       </c>
       <c r="Y15">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Z15">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="AB15">
-        <v>0.21</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="AC15">
-        <v>734</v>
+        <v>1046</v>
       </c>
       <c r="AE15">
-        <v>0.27100000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="AF15">
-        <v>0.47199999999999998</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="AH15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>72</v>
       </c>
       <c r="D16">
-        <v>17455</v>
+        <v>17405</v>
       </c>
       <c r="E16">
-        <v>0.47199999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="F16">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="H16">
-        <v>0.63700000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="I16">
-        <v>0.28799999999999998</v>
+        <v>0.251</v>
       </c>
       <c r="J16">
-        <v>0.16700000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="K16">
-        <v>0.105</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="L16">
-        <v>7.6999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="M16">
-        <v>0.36299999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="O16">
-        <v>0.53900000000000003</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="P16">
-        <v>0.70099999999999996</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="Q16">
-        <v>0.434</v>
+        <v>0.443</v>
       </c>
       <c r="R16">
-        <v>0.40300000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="S16">
-        <v>0.35</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="T16">
-        <v>0.35399999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="V16">
-        <v>0.50600000000000001</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="W16">
-        <v>0.877</v>
+        <v>0.872</v>
       </c>
       <c r="Y16">
-        <v>6.5000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Z16">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="AB16">
-        <v>0.28199999999999997</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="AC16">
-        <v>1046</v>
+        <v>959</v>
       </c>
       <c r="AE16">
-        <v>0.25</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="AF16">
-        <v>0.36699999999999999</v>
+        <v>0.377</v>
       </c>
       <c r="AH16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -9784,85 +9808,85 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>72</v>
       </c>
       <c r="D17">
-        <v>17405</v>
+        <v>17380</v>
       </c>
       <c r="E17">
-        <v>0.46700000000000003</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>14.8</v>
       </c>
       <c r="H17">
-        <v>0.65800000000000003</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="I17">
-        <v>0.251</v>
+        <v>0.247</v>
       </c>
       <c r="J17">
-        <v>0.221</v>
+        <v>0.161</v>
       </c>
       <c r="K17">
-        <v>0.14099999999999999</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L17">
-        <v>4.5999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="M17">
-        <v>0.34200000000000003</v>
+        <v>0.432</v>
       </c>
       <c r="O17">
-        <v>0.52500000000000002</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="P17">
-        <v>0.66100000000000003</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="Q17">
-        <v>0.443</v>
+        <v>0.437</v>
       </c>
       <c r="R17">
-        <v>0.45300000000000001</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="S17">
-        <v>0.39300000000000002</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="T17">
-        <v>0.35599999999999998</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="V17">
-        <v>0.54300000000000004</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="W17">
-        <v>0.872</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="Y17">
-        <v>5.0999999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Z17">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB17">
-        <v>0.26100000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="AC17">
-        <v>959</v>
+        <v>910</v>
       </c>
       <c r="AE17">
-        <v>0.25800000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AF17">
-        <v>0.377</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="AH17">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -9870,85 +9894,85 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>72</v>
       </c>
       <c r="D18">
-        <v>17380</v>
+        <v>17330</v>
       </c>
       <c r="E18">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F18">
+        <v>14.6</v>
+      </c>
+      <c r="H18">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I18">
+        <v>0.255</v>
+      </c>
+      <c r="J18">
+        <v>0.155</v>
+      </c>
+      <c r="K18">
+        <v>0.104</v>
+      </c>
+      <c r="L18">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="M18">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="O18">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="P18">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="Q18">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="R18">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="S18">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="T18">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="V18">
         <v>0.46800000000000003</v>
       </c>
-      <c r="F18">
-        <v>14.8</v>
-      </c>
-      <c r="H18">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="I18">
-        <v>0.247</v>
-      </c>
-      <c r="J18">
-        <v>0.161</v>
-      </c>
-      <c r="K18">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L18">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="M18">
-        <v>0.432</v>
-      </c>
-      <c r="O18">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="P18">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="Q18">
-        <v>0.437</v>
-      </c>
-      <c r="R18">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="S18">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="T18">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="V18">
-        <v>0.56200000000000006</v>
-      </c>
       <c r="W18">
-        <v>0.89300000000000002</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="Y18">
-        <v>5.7000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="Z18">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="AB18">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
       <c r="AC18">
-        <v>910</v>
+        <v>1001</v>
       </c>
       <c r="AE18">
-        <v>0.23899999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="AF18">
-        <v>0.36099999999999999</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="AH18">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -9956,85 +9980,85 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>72</v>
       </c>
       <c r="D19">
-        <v>17330</v>
+        <v>17405</v>
       </c>
       <c r="E19">
-        <v>0.48699999999999999</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="F19">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="H19">
-        <v>0.59599999999999997</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="I19">
-        <v>0.255</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="J19">
-        <v>0.155</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="K19">
-        <v>0.104</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="L19">
-        <v>8.2000000000000003E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="M19">
-        <v>0.40400000000000003</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="O19">
-        <v>0.55400000000000005</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="P19">
-        <v>0.71699999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="Q19">
-        <v>0.41899999999999998</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="R19">
-        <v>0.45700000000000002</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="S19">
-        <v>0.42599999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="T19">
-        <v>0.38900000000000001</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="V19">
-        <v>0.46800000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="W19">
-        <v>0.78200000000000003</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="Y19">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="Z19">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="AB19">
-        <v>0.26</v>
+        <v>0.311</v>
       </c>
       <c r="AC19">
-        <v>1001</v>
+        <v>1098</v>
       </c>
       <c r="AE19">
-        <v>0.21099999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="AF19">
-        <v>0.40699999999999997</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="AH19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -10042,96 +10066,96 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>72</v>
       </c>
       <c r="D20">
-        <v>17405</v>
+        <v>17430</v>
       </c>
       <c r="E20">
-        <v>0.44800000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F20">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="H20">
-        <v>0.58699999999999997</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="I20">
-        <v>0.29899999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="J20">
-        <v>0.17199999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K20">
-        <v>6.0999999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L20">
-        <v>5.3999999999999999E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="M20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="O20">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="P20">
+        <v>0.66</v>
+      </c>
+      <c r="Q20">
         <v>0.41299999999999998</v>
       </c>
-      <c r="O20">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="P20">
-        <v>0.65</v>
-      </c>
-      <c r="Q20">
-        <v>0.39100000000000001</v>
-      </c>
       <c r="R20">
-        <v>0.36299999999999999</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="S20">
-        <v>0.36199999999999999</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="T20">
-        <v>0.34899999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="V20">
-        <v>0.53200000000000003</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="W20">
-        <v>0.83499999999999996</v>
+        <v>0.871</v>
       </c>
       <c r="Y20">
-        <v>5.8999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Z20">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="AB20">
-        <v>0.311</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="AC20">
-        <v>1098</v>
+        <v>1230</v>
       </c>
       <c r="AE20">
-        <v>0.20799999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="AF20">
-        <v>0.36199999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="AH20">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>72</v>
@@ -10140,331 +10164,331 @@
         <v>17430</v>
       </c>
       <c r="E21">
-        <v>0.47699999999999998</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="F21">
-        <v>12.6</v>
+        <v>13.5</v>
       </c>
       <c r="H21">
-        <v>0.65800000000000003</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="I21">
-        <v>0.33600000000000002</v>
+        <v>0.254</v>
       </c>
       <c r="J21">
-        <v>0.16500000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="K21">
-        <v>8.6999999999999994E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="L21">
-        <v>7.0999999999999994E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="M21">
-        <v>0.34200000000000003</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="O21">
-        <v>0.54400000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="P21">
-        <v>0.66</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="Q21">
-        <v>0.41299999999999998</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="R21">
-        <v>0.41399999999999998</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="S21">
-        <v>0.45700000000000002</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="T21">
-        <v>0.34799999999999998</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="V21">
-        <v>0.52600000000000002</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="W21">
-        <v>0.871</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="Y21">
-        <v>0.06</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Z21">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="AB21">
-        <v>0.34499999999999997</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="AC21">
-        <v>1230</v>
+        <v>829</v>
       </c>
       <c r="AE21">
-        <v>0.23699999999999999</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="AF21">
-        <v>0.34499999999999997</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="AH21">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AI21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>72</v>
       </c>
       <c r="D22">
-        <v>17430</v>
+        <v>17355</v>
       </c>
       <c r="E22">
-        <v>0.45600000000000002</v>
+        <v>0.441</v>
       </c>
       <c r="F22">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="H22">
-        <v>0.65300000000000002</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="I22">
-        <v>0.254</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="J22">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="K22">
-        <v>0.11799999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="L22">
-        <v>9.0999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M22">
-        <v>0.34699999999999998</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="O22">
-        <v>0.49</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="P22">
-        <v>0.63700000000000001</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="Q22">
-        <v>0.38500000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="R22">
-        <v>0.40699999999999997</v>
+        <v>0.41</v>
       </c>
       <c r="S22">
-        <v>0.41099999999999998</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="T22">
-        <v>0.39200000000000002</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="V22">
-        <v>0.41599999999999998</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="W22">
-        <v>0.84199999999999997</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="Y22">
-        <v>5.3999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Z22">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="AB22">
-        <v>0.26200000000000001</v>
+        <v>0.314</v>
       </c>
       <c r="AC22">
-        <v>829</v>
+        <v>1031</v>
       </c>
       <c r="AE22">
-        <v>0.28299999999999997</v>
+        <v>0.188</v>
       </c>
       <c r="AF22">
-        <v>0.42599999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AH22">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>72</v>
       </c>
       <c r="D23">
-        <v>17355</v>
+        <v>17330</v>
       </c>
       <c r="E23">
-        <v>0.441</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="F23">
-        <v>13.7</v>
+        <v>14.4</v>
       </c>
       <c r="H23">
-        <v>0.60099999999999998</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="I23">
-        <v>0.27800000000000002</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="J23">
-        <v>0.2</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="K23">
-        <v>7.3999999999999996E-2</v>
+        <v>0.121</v>
       </c>
       <c r="L23">
-        <v>0.05</v>
+        <v>0.109</v>
       </c>
       <c r="M23">
-        <v>0.39900000000000002</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="O23">
-        <v>0.50900000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="P23">
-        <v>0.63500000000000001</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="Q23">
-        <v>0.40100000000000002</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="R23">
-        <v>0.41</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="S23">
-        <v>0.38100000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="T23">
-        <v>0.33900000000000002</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="V23">
-        <v>0.45500000000000002</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="W23">
-        <v>0.82399999999999995</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="Y23">
-        <v>4.8000000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="Z23">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="AB23">
-        <v>0.314</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="AC23">
-        <v>1031</v>
+        <v>838</v>
       </c>
       <c r="AE23">
-        <v>0.188</v>
+        <v>0.15</v>
       </c>
       <c r="AF23">
-        <v>0.375</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="AH23">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>72</v>
       </c>
       <c r="D24">
-        <v>17330</v>
+        <v>17430</v>
       </c>
       <c r="E24">
-        <v>0.42899999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="F24">
-        <v>14.4</v>
+        <v>13.7</v>
       </c>
       <c r="H24">
-        <v>0.64400000000000002</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="I24">
-        <v>0.20100000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="J24">
-        <v>0.21199999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="K24">
-        <v>0.121</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="L24">
-        <v>0.109</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M24">
-        <v>0.35599999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="O24">
-        <v>0.47599999999999998</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="P24">
-        <v>0.65200000000000002</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="Q24">
-        <v>0.38600000000000001</v>
+        <v>0.436</v>
       </c>
       <c r="R24">
-        <v>0.42399999999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="S24">
-        <v>0.38800000000000001</v>
+        <v>0.438</v>
       </c>
       <c r="T24">
-        <v>0.34300000000000003</v>
+        <v>0.374</v>
       </c>
       <c r="V24">
-        <v>0.46899999999999997</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="W24">
-        <v>0.82699999999999996</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="Y24">
-        <v>3.5999999999999997E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Z24">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="AB24">
-        <v>0.25800000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="AC24">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="AE24">
-        <v>0.15</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="AF24">
-        <v>0.35899999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="AH24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -10472,85 +10496,85 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>72</v>
       </c>
       <c r="D25">
-        <v>17430</v>
+        <v>17480</v>
       </c>
       <c r="E25">
-        <v>0.47599999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="F25">
-        <v>13.7</v>
+        <v>14.9</v>
       </c>
       <c r="H25">
-        <v>0.65300000000000002</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="I25">
-        <v>0.24099999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="J25">
-        <v>0.20300000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="K25">
-        <v>0.11700000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="L25">
-        <v>9.1999999999999998E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="M25">
-        <v>0.34699999999999998</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="O25">
-        <v>0.53100000000000003</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="P25">
-        <v>0.67200000000000004</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="Q25">
-        <v>0.436</v>
+        <v>0.47</v>
       </c>
       <c r="R25">
-        <v>0.47899999999999998</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="S25">
-        <v>0.438</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="T25">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
       <c r="V25">
-        <v>0.45200000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="W25">
-        <v>0.89400000000000002</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="Y25">
-        <v>5.6000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="Z25">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="AB25">
-        <v>0.24399999999999999</v>
+        <v>0.215</v>
       </c>
       <c r="AC25">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="AE25">
-        <v>0.26100000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="AF25">
-        <v>0.41699999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="AH25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -10558,85 +10582,85 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>72</v>
       </c>
       <c r="D26">
-        <v>17480</v>
+        <v>17305</v>
       </c>
       <c r="E26">
-        <v>0.49</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="F26">
-        <v>14.9</v>
+        <v>15.6</v>
       </c>
       <c r="H26">
-        <v>0.60799999999999998</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="I26">
-        <v>0.21099999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="J26">
-        <v>0.158</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="K26">
-        <v>0.14799999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L26">
-        <v>9.0999999999999998E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="M26">
-        <v>0.39200000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="O26">
-        <v>0.56299999999999994</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="P26">
-        <v>0.71799999999999997</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="Q26">
-        <v>0.47</v>
+        <v>0.378</v>
       </c>
       <c r="R26">
-        <v>0.50900000000000001</v>
+        <v>0.439</v>
       </c>
       <c r="S26">
-        <v>0.45400000000000001</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="T26">
-        <v>0.378</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="V26">
-        <v>0.52400000000000002</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="W26">
-        <v>0.84899999999999998</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="Y26">
-        <v>3.9E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Z26">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="AB26">
-        <v>0.215</v>
+        <v>0.254</v>
       </c>
       <c r="AC26">
-        <v>843</v>
+        <v>937</v>
       </c>
       <c r="AE26">
-        <v>0.26500000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="AF26">
-        <v>0.43</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="AH26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -10644,10 +10668,10 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>72</v>
@@ -10656,73 +10680,73 @@
         <v>17305</v>
       </c>
       <c r="E27">
-        <v>0.45300000000000001</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="F27">
-        <v>15.6</v>
+        <v>13.6</v>
       </c>
       <c r="H27">
-        <v>0.55200000000000005</v>
+        <v>0.624</v>
       </c>
       <c r="I27">
-        <v>0.24399999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="J27">
-        <v>0.13300000000000001</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="K27">
-        <v>8.5000000000000006E-2</v>
+        <v>0.106</v>
       </c>
       <c r="L27">
-        <v>8.8999999999999996E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="M27">
-        <v>0.44800000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="O27">
-        <v>0.50900000000000001</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="P27">
-        <v>0.63700000000000001</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="Q27">
-        <v>0.378</v>
+        <v>0.432</v>
       </c>
       <c r="R27">
-        <v>0.439</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="S27">
+        <v>0.4</v>
+      </c>
+      <c r="T27">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="V27">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="W27">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="Y27">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Z27">
+        <v>359</v>
+      </c>
+      <c r="AB27">
+        <v>0.26</v>
+      </c>
+      <c r="AC27">
+        <v>931</v>
+      </c>
+      <c r="AE27">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AF27">
         <v>0.42199999999999999</v>
       </c>
-      <c r="T27">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="V27">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="W27">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="Y27">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="Z27">
-        <v>183</v>
-      </c>
-      <c r="AB27">
-        <v>0.254</v>
-      </c>
-      <c r="AC27">
-        <v>937</v>
-      </c>
-      <c r="AE27">
-        <v>0.159</v>
-      </c>
-      <c r="AF27">
-        <v>0.39300000000000002</v>
-      </c>
       <c r="AH27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -10730,85 +10754,85 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>72</v>
       </c>
       <c r="D28">
-        <v>17305</v>
+        <v>17480</v>
       </c>
       <c r="E28">
-        <v>0.48099999999999998</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="F28">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="H28">
-        <v>0.624</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="I28">
-        <v>0.249</v>
+        <v>0.24</v>
       </c>
       <c r="J28">
-        <v>0.21299999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="K28">
-        <v>0.106</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="L28">
-        <v>5.6000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="M28">
-        <v>0.376</v>
+        <v>0.314</v>
       </c>
       <c r="O28">
-        <v>0.55100000000000005</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="P28">
-        <v>0.71699999999999997</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="Q28">
-        <v>0.432</v>
+        <v>0.435</v>
       </c>
       <c r="R28">
-        <v>0.47899999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="S28">
-        <v>0.4</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="T28">
-        <v>0.36399999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="V28">
-        <v>0.51600000000000001</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="W28">
-        <v>0.80500000000000005</v>
+        <v>0.877</v>
       </c>
       <c r="Y28">
-        <v>6.2E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Z28">
-        <v>359</v>
+        <v>204</v>
       </c>
       <c r="AB28">
-        <v>0.26</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="AC28">
-        <v>931</v>
+        <v>1019</v>
       </c>
       <c r="AE28">
-        <v>0.21199999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="AF28">
-        <v>0.42199999999999999</v>
+        <v>0.377</v>
       </c>
       <c r="AH28">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -10816,85 +10840,85 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>72</v>
       </c>
       <c r="D29">
-        <v>17480</v>
+        <v>17305</v>
       </c>
       <c r="E29">
-        <v>0.46200000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="F29">
-        <v>13.3</v>
+        <v>14.9</v>
       </c>
       <c r="H29">
-        <v>0.68600000000000005</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="I29">
-        <v>0.24</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="J29">
-        <v>0.19900000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="K29">
-        <v>0.14199999999999999</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L29">
-        <v>0.105</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="M29">
-        <v>0.314</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="O29">
-        <v>0.51400000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="P29">
-        <v>0.65800000000000003</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="Q29">
-        <v>0.435</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="R29">
-        <v>0.433</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="S29">
-        <v>0.44400000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="T29">
-        <v>0.35</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="V29">
-        <v>0.49199999999999999</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="W29">
-        <v>0.877</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="Y29">
-        <v>3.5000000000000003E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Z29">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="AB29">
-        <v>0.28100000000000003</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="AC29">
-        <v>1019</v>
+        <v>969</v>
       </c>
       <c r="AE29">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AF29">
-        <v>0.377</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="AH29">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -10902,85 +10926,85 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
       </c>
       <c r="C30">
         <v>72</v>
       </c>
       <c r="D30">
-        <v>17305</v>
+        <v>17355</v>
       </c>
       <c r="E30">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F30">
+        <v>15.5</v>
+      </c>
+      <c r="H30">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="J30">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="K30">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L30">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M30">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="P30">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="Q30">
+        <v>0.443</v>
+      </c>
+      <c r="R30">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F30">
-        <v>14.9</v>
-      </c>
-      <c r="H30">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I30">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="J30">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="K30">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L30">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="M30">
+      <c r="S30">
+        <v>0.372</v>
+      </c>
+      <c r="T30">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="V30">
         <v>0.44400000000000001</v>
       </c>
-      <c r="O30">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="P30">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="Q30">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="R30">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="S30">
-        <v>0.375</v>
-      </c>
-      <c r="T30">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="V30">
-        <v>0.48299999999999998</v>
-      </c>
       <c r="W30">
-        <v>0.82199999999999995</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="Y30">
-        <v>5.0999999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z30">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="AB30">
-        <v>0.28599999999999998</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AC30">
-        <v>969</v>
+        <v>786</v>
       </c>
       <c r="AE30">
-        <v>0.22500000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="AF30">
-        <v>0.38800000000000001</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="AH30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -10988,85 +11012,85 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>72</v>
       </c>
       <c r="D31">
-        <v>17355</v>
+        <v>17405</v>
       </c>
       <c r="E31">
-        <v>0.46800000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F31">
-        <v>15.5</v>
+        <v>13.6</v>
       </c>
       <c r="H31">
-        <v>0.51200000000000001</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="I31">
-        <v>0.20699999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="J31">
-        <v>0.20100000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="K31">
-        <v>6.9000000000000006E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="L31">
-        <v>3.5000000000000003E-2</v>
+        <v>0.114</v>
       </c>
       <c r="M31">
-        <v>0.48799999999999999</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="O31">
-        <v>0.54400000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="P31">
-        <v>0.70299999999999996</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="Q31">
-        <v>0.443</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="R31">
-        <v>0.44800000000000001</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="S31">
-        <v>0.372</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="T31">
-        <v>0.38900000000000001</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="V31">
-        <v>0.44400000000000001</v>
+        <v>0.501</v>
       </c>
       <c r="W31">
-        <v>0.76300000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="Y31">
-        <v>5.8000000000000003E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z31">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AB31">
-        <v>0.22500000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="AC31">
-        <v>786</v>
+        <v>1074</v>
       </c>
       <c r="AE31">
-        <v>0.254</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="AF31">
-        <v>0.40799999999999997</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="AH31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -11074,173 +11098,87 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>72</v>
       </c>
       <c r="D32">
-        <v>17405</v>
+        <v>17381</v>
       </c>
       <c r="E32">
-        <v>0.47499999999999998</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="F32">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="H32">
-        <v>0.68100000000000005</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="I32">
-        <v>0.19900000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="J32">
-        <v>0.26800000000000002</v>
+        <v>0.186</v>
       </c>
       <c r="K32">
-        <v>0.10100000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L32">
-        <v>0.114</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M32">
-        <v>0.31900000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="O32">
-        <v>0.53300000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="P32">
-        <v>0.69499999999999995</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="Q32">
-        <v>0.51500000000000001</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="R32">
-        <v>0.40799999999999997</v>
+        <v>0.435</v>
       </c>
       <c r="S32">
-        <v>0.40200000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="T32">
-        <v>0.35099999999999998</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="V32">
-        <v>0.501</v>
+        <v>0.502</v>
       </c>
       <c r="W32">
-        <v>0.88</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="Y32">
-        <v>5.5E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Z32">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="AB32">
-        <v>0.29899999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="AC32">
-        <v>1074</v>
+        <v>960</v>
       </c>
       <c r="AE32">
-        <v>0.23100000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="AF32">
-        <v>0.36899999999999999</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="AH32">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AI32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33">
-        <v>72</v>
-      </c>
-      <c r="D33">
-        <v>17381</v>
-      </c>
-      <c r="E33">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="F33">
-        <v>14.1</v>
-      </c>
-      <c r="H33">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="I33">
-        <v>0.254</v>
-      </c>
-      <c r="J33">
-        <v>0.186</v>
-      </c>
-      <c r="K33">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L33">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="M33">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="O33">
-        <v>0.53</v>
-      </c>
-      <c r="P33">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="Q33">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="R33">
-        <v>0.435</v>
-      </c>
-      <c r="S33">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="T33">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="V33">
-        <v>0.502</v>
-      </c>
-      <c r="W33">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="Y33">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="Z33">
-        <v>303</v>
-      </c>
-      <c r="AB33">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="AC33">
-        <v>960</v>
-      </c>
-      <c r="AE33">
-        <v>0.222</v>
-      </c>
-      <c r="AF33">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="AH33">
-        <v>10.5</v>
-      </c>
-      <c r="AI33">
         <v>0.3</v>
       </c>
     </row>
